--- a/imageConds2.xlsx
+++ b/imageConds2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>imageSetLvl</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>car</t>
+  </si>
+  <si>
+    <t>refSetNumber</t>
+  </si>
+  <si>
+    <t>barber</t>
   </si>
 </sst>
 </file>
@@ -289,7 +295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -300,29 +306,43 @@
     <col min="1" max="26" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
     </row>
   </sheetData>
